--- a/List_Tasks.xlsx
+++ b/List_Tasks.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="10">
   <si>
     <t>Develop a WebApi based on a DDD Pattern in .Net6</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>#</t>
+  </si>
+  <si>
+    <t>x</t>
   </si>
 </sst>
 </file>
@@ -528,8 +531,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -555,7 +558,9 @@
       <c r="B2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="3"/>
+      <c r="C2" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="3" spans="1:3" ht="33" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -564,7 +569,9 @@
       <c r="B3" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3"/>
+      <c r="C3" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="4" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
@@ -573,7 +580,9 @@
       <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="3"/>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="5" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
@@ -582,7 +591,9 @@
       <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="3"/>
+      <c r="C5" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="6" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
@@ -591,7 +602,9 @@
       <c r="B6" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="3"/>
+      <c r="C6" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
     <row r="7" spans="1:3" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
@@ -600,7 +613,9 @@
       <c r="B7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:C2">
